--- a/medicine/Enfance/Philippe_Lechermeier/Philippe_Lechermeier.xlsx
+++ b/medicine/Enfance/Philippe_Lechermeier/Philippe_Lechermeier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Lechermeier est un écrivain français, né à Strasbourg le 1er mai 1968.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Lechermeier fait des études de Lettres qu'il agrémente de nombreux voyages à travers le monde. Devenu plus sédentaire, il se met à écrire des histoires pour ses deux filles. Un de ses premiers textes, Quand j'étais Loup est publié en 2003 et d'autres titres vont suivre. En 2004 parait Princesses oubliées ou inconnues, illustré par Rébecca Dautremer qui devient un succès mondial suivi, un an plus tard par Graines de Cabanes.
 Il complète sa série d'encyclopédies poétiques en 2008 avec Fil de fée et un quatrième titre, Cirque Magique à l'automne 2011.
@@ -519,7 +533,7 @@
 Un recueil de nouvelles, Petites frictions et autres histoires courtes, publié en 2007 chez Milan, permet à Philippe Lechermeier d'aborder de façon originale et avec un humour souvent grinçant, les thèmes et les préoccupations qui font le quotidien des adolescents.
 En 2009, son Journal secret du petit Poucet, à nouveau illustré par Rébecca Dautremer, est salué par la critique. Il y revisite avec humour et gravité le conte célèbre dans un album concept destiné autant aux enfants qu'aux plus grands.
 Des biographies historiques, Robespierre et Napoléon, éditées chez Actes Sud viennent compléter la palette déjà très éclectique de l'auteur.
-Dans Lettres à plumes et à poils, recueil de cinq correspondances illustré par Delphine Perret, Philippe Lechermeier évoque avec ironie et drôlerie des histoires de bêtes souvent très humaines. Le livre est couronné à Montreuil en 2012 par le prix Tam-Tam[1] J'aime Lire et le Prix Bernard Versele[2] en 2013. Il a été suivi en 2014 par Lettres à pattes, à poils et à pétales.
+Dans Lettres à plumes et à poils, recueil de cinq correspondances illustré par Delphine Perret, Philippe Lechermeier évoque avec ironie et drôlerie des histoires de bêtes souvent très humaines. Le livre est couronné à Montreuil en 2012 par le prix Tam-Tam J'aime Lire et le Prix Bernard Versele en 2013. Il a été suivi en 2014 par Lettres à pattes, à poils et à pétales.
 Pour l'automne 2014, il retrouve, pour leur troisième collaboration, Rébecca Dautremer autour d'un projet singulier et insensé, la réecriture de la Bible. Dans un esprit de transmission culturelle et sans aucun message religieux, l'auteur et l'illustratrice donnent à lire et à voir dans Une Bible un texte fondateur, destiné à tous ceux qui, au-delà des croyances, ne veulent pas passer à côté de ce qui a participé aux fondements mêmes de notre civilisation.
 </t>
         </is>
@@ -549,7 +563,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1998 : La Valise, illustré par Christian Voltz, éditions Didier Jeunesse
 2003 : Quand j’étais loup, illustré par Sacha Poliakova, éditions Gautier-Languereau
@@ -606,14 +622,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Gayant Lecture 2007[3] pour Un trousseau pour Tao, avec Dorothée Duntze
-Prix Tam-Tam[1] 2012 pour Lettres à plumes et à poils, illustré par Delphine Perret
-Prix Bernard Versele[2] 2013 pour Lettres à plumes et à poils, illustré par Delphine Perret
-« Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[4]  pour Trois exploits de Till l'Espiègle, illustrations de Gaëtan Dorémus, 2015
-Coup de cœur Jeune Public automne 2018 de l'Académie Charles-Cros pour La voix d’Ella[5]
-« Pépite fiction juniors » 2022 du Salon du livre et de la presse jeunesse en Seine-Saint-Denis pour Maldoror – Tome 1 : Les Enfants de la Légende[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Gayant Lecture 2007 pour Un trousseau pour Tao, avec Dorothée Duntze
+Prix Tam-Tam 2012 pour Lettres à plumes et à poils, illustré par Delphine Perret
+Prix Bernard Versele 2013 pour Lettres à plumes et à poils, illustré par Delphine Perret
+« Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)  pour Trois exploits de Till l'Espiègle, illustrations de Gaëtan Dorémus, 2015
+Coup de cœur Jeune Public automne 2018 de l'Académie Charles-Cros pour La voix d’Ella
+« Pépite fiction juniors » 2022 du Salon du livre et de la presse jeunesse en Seine-Saint-Denis pour Maldoror – Tome 1 : Les Enfants de la Légende.</t>
         </is>
       </c>
     </row>
